--- a/API_COL_DS2_es_csv_v2_5872204/INFORMACION_GENERAL_DE_LA_SERIE_DE_LA_ENCUESTA_AMBIENTAL_INDUSTRIAL_(EAI)_2016_2021.xlsx
+++ b/API_COL_DS2_es_csv_v2_5872204/INFORMACION_GENERAL_DE_LA_SERIE_DE_LA_ENCUESTA_AMBIENTAL_INDUSTRIAL_(EAI)_2016_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hysanchez\Documents\DESARROLLOS\proyecto-cambio-climatico\API_COL_DS2_es_csv_v2_5872204\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BEF02F-BBDC-4965-8E33-46C480CDC810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46BFCE9-DEDB-48E6-A083-BADCE77BAB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="23232" windowHeight="25296" activeTab="4" xr2:uid="{28DD42BD-42FC-4988-97BA-7F319D18C6F9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" xr2:uid="{28DD42BD-42FC-4988-97BA-7F319D18C6F9}"/>
   </bookViews>
   <sheets>
     <sheet name="CUADRO_1" sheetId="1" r:id="rId1"/>
@@ -60,9 +60,6 @@
     <t>PAGOS_POR_LICENCIAS_PERMISOS_TASAS_Y_MULTAS</t>
   </si>
   <si>
-    <t xml:space="preserve">PAGOS_RELACIONADOS_CON_EL_CUIDADO_DEL_MEDIO_AMBIENTE </t>
-  </si>
-  <si>
     <t>DONACIONES_AMBIENTALES</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
   </si>
   <si>
     <t>RESIDUOS_GENERADOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RESIDUOS_DISPUESTOS </t>
   </si>
   <si>
     <t>AGUA_UTILIZADA</t>
@@ -163,6 +157,12 @@
   </si>
   <si>
     <t>CATEGORÍA_DE_PROTECCIÓN_Y_GESTIÓN_AMBIENTAL_GASTO_EN_ACTIVOS_CON_FINES_DE_PROTECCIÓN_Y_CONSERVACIÓN_DEL_MEDIO_AMBIENTE</t>
+  </si>
+  <si>
+    <t>PAGOS_RELACIONADOS_CON_EL_CUIDADO_DEL_MEDIO_AMBIENTE</t>
+  </si>
+  <si>
+    <t>RESIDUOS_DISPUESTOS</t>
   </si>
 </sst>
 </file>
@@ -235,16 +235,16 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D0CF73-3FEC-42A7-8700-1258FB8770D9}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -611,28 +611,28 @@
         <v>5</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.35">
@@ -860,7 +860,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" s="5">
         <v>2016</v>
@@ -880,7 +880,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" s="10">
         <v>99</v>
@@ -900,7 +900,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" s="10">
         <v>82.4</v>
@@ -920,7 +920,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="10">
         <v>93.3</v>
@@ -940,7 +940,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="10">
         <v>61</v>
@@ -960,7 +960,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="10">
         <v>67.900000000000006</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="10">
         <v>91.6</v>
@@ -1000,7 +1000,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="10">
         <v>63.4</v>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="10">
         <v>30.9</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="10">
         <v>47.3</v>
@@ -1077,7 +1077,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="7">
         <v>2016</v>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="8">
         <v>47.5</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" s="8">
         <v>42.1</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="8">
         <v>43.7</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" s="8">
         <v>46.7</v>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="8">
         <v>38.6</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="8">
         <v>32.6</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="8">
         <v>32.5</v>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="8">
         <v>31</v>
@@ -1257,7 +1257,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="8">
         <v>18.100000000000001</v>
@@ -1294,7 +1294,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" s="5">
         <v>2016</v>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="9">
         <v>77121</v>
@@ -1334,7 +1334,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" s="9">
         <v>134116</v>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="9">
         <v>0</v>
@@ -1374,7 +1374,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" s="9">
         <v>5899</v>
@@ -1394,7 +1394,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" s="9">
         <v>9304</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="9">
         <v>2601</v>
@@ -1434,7 +1434,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B8" s="9">
         <v>3591</v>
@@ -1454,7 +1454,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" s="9">
         <v>3611</v>
@@ -1481,7 +1481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C58B3CF-515D-4543-B001-83E671D52669}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1491,7 +1491,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" s="5">
         <v>2016</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="9">
         <v>240155</v>
@@ -1531,7 +1531,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="9">
         <v>135838</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" s="9">
         <v>72493</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" s="9">
         <v>8001</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="9">
         <v>0</v>
@@ -1611,7 +1611,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" s="9">
         <v>5998</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" s="9">
         <v>2537</v>
